--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb2-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb2-Acvr1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.787349</v>
+        <v>0.8606349999999999</v>
       </c>
       <c r="H2">
-        <v>5.362047</v>
+        <v>2.581905</v>
       </c>
       <c r="I2">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="J2">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.057757666666666</v>
+        <v>4.093680666666667</v>
       </c>
       <c r="N2">
-        <v>15.173273</v>
+        <v>12.281042</v>
       </c>
       <c r="O2">
-        <v>0.173378811020062</v>
+        <v>0.1610908176055751</v>
       </c>
       <c r="P2">
-        <v>0.173378811020062</v>
+        <v>0.161090817605575</v>
       </c>
       <c r="Q2">
-        <v>9.039978107759</v>
+        <v>3.523164860556666</v>
       </c>
       <c r="R2">
-        <v>81.35980296983101</v>
+        <v>31.70848374501</v>
       </c>
       <c r="S2">
-        <v>0.008539794491957759</v>
+        <v>0.004230669188398726</v>
       </c>
       <c r="T2">
-        <v>0.008539794491957761</v>
+        <v>0.004230669188398725</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.787349</v>
+        <v>0.8606349999999999</v>
       </c>
       <c r="H3">
-        <v>5.362047</v>
+        <v>2.581905</v>
       </c>
       <c r="I3">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="J3">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>42.742233</v>
       </c>
       <c r="O3">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="P3">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="Q3">
-        <v>25.465095803439</v>
+        <v>12.261820565985</v>
       </c>
       <c r="R3">
-        <v>229.185862230951</v>
+        <v>110.356385093865</v>
       </c>
       <c r="S3">
-        <v>0.02405610746919107</v>
+        <v>0.0147241779807006</v>
       </c>
       <c r="T3">
-        <v>0.02405610746919107</v>
+        <v>0.0147241779807006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.787349</v>
+        <v>0.8606349999999999</v>
       </c>
       <c r="H4">
-        <v>5.362047</v>
+        <v>2.581905</v>
       </c>
       <c r="I4">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="J4">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.866548666666667</v>
+        <v>7.071161666666666</v>
       </c>
       <c r="N4">
-        <v>29.599646</v>
+        <v>21.213485</v>
       </c>
       <c r="O4">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="P4">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="Q4">
-        <v>17.634965892818</v>
+        <v>6.085689220991665</v>
       </c>
       <c r="R4">
-        <v>158.714693035362</v>
+        <v>54.771202988925</v>
       </c>
       <c r="S4">
-        <v>0.01665922005586399</v>
+        <v>0.007307786861087074</v>
       </c>
       <c r="T4">
-        <v>0.01665922005586399</v>
+        <v>0.007307786861087073</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>19.46983</v>
       </c>
       <c r="H5">
-        <v>58.40948999999999</v>
+        <v>58.40949000000001</v>
       </c>
       <c r="I5">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="J5">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.057757666666666</v>
+        <v>4.093680666666667</v>
       </c>
       <c r="N5">
-        <v>15.173273</v>
+        <v>12.281042</v>
       </c>
       <c r="O5">
-        <v>0.173378811020062</v>
+        <v>0.1610908176055751</v>
       </c>
       <c r="P5">
-        <v>0.173378811020062</v>
+        <v>0.161090817605575</v>
       </c>
       <c r="Q5">
-        <v>98.47368195119665</v>
+        <v>79.70326665428668</v>
       </c>
       <c r="R5">
-        <v>886.2631375607699</v>
+        <v>717.32939988858</v>
       </c>
       <c r="S5">
-        <v>0.09302511540463218</v>
+        <v>0.09570887761288022</v>
       </c>
       <c r="T5">
-        <v>0.09302511540463219</v>
+        <v>0.0957088776128802</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>19.46983</v>
       </c>
       <c r="H6">
-        <v>58.40948999999999</v>
+        <v>58.40949000000001</v>
       </c>
       <c r="I6">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="J6">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>42.742233</v>
       </c>
       <c r="O6">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="P6">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="Q6">
         <v>277.39467011013</v>
       </c>
       <c r="R6">
-        <v>2496.552030991169</v>
+        <v>2496.55203099117</v>
       </c>
       <c r="S6">
-        <v>0.2620463730848762</v>
+        <v>0.3330996789277498</v>
       </c>
       <c r="T6">
-        <v>0.2620463730848762</v>
+        <v>0.3330996789277498</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>19.46983</v>
       </c>
       <c r="H7">
-        <v>58.40948999999999</v>
+        <v>58.40949000000001</v>
       </c>
       <c r="I7">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="J7">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.866548666666667</v>
+        <v>7.071161666666666</v>
       </c>
       <c r="N7">
-        <v>29.599646</v>
+        <v>21.213485</v>
       </c>
       <c r="O7">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="P7">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="Q7">
-        <v>192.1000252267266</v>
+        <v>137.6743155525167</v>
       </c>
       <c r="R7">
-        <v>1728.90022704054</v>
+        <v>1239.06883997265</v>
       </c>
       <c r="S7">
-        <v>0.1814710962549912</v>
+        <v>0.1653213823067839</v>
       </c>
       <c r="T7">
-        <v>0.1814710962549912</v>
+        <v>0.1653213823067839</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.03039733333333</v>
+        <v>12.439858</v>
       </c>
       <c r="H8">
-        <v>45.091192</v>
+        <v>37.319574</v>
       </c>
       <c r="I8">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223998</v>
       </c>
       <c r="J8">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223997</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.057757666666666</v>
+        <v>4.093680666666667</v>
       </c>
       <c r="N8">
-        <v>15.173273</v>
+        <v>12.281042</v>
       </c>
       <c r="O8">
-        <v>0.173378811020062</v>
+        <v>0.1610908176055751</v>
       </c>
       <c r="P8">
-        <v>0.173378811020062</v>
+        <v>0.161090817605575</v>
       </c>
       <c r="Q8">
-        <v>76.02010734571289</v>
+        <v>50.92480619067867</v>
       </c>
       <c r="R8">
-        <v>684.180966111416</v>
+        <v>458.323255716108</v>
       </c>
       <c r="S8">
-        <v>0.07181390112347202</v>
+        <v>0.06115127080429612</v>
       </c>
       <c r="T8">
-        <v>0.07181390112347202</v>
+        <v>0.06115127080429611</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.03039733333333</v>
+        <v>12.439858</v>
       </c>
       <c r="H9">
-        <v>45.091192</v>
+        <v>37.319574</v>
       </c>
       <c r="I9">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223998</v>
       </c>
       <c r="J9">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223997</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>42.742233</v>
       </c>
       <c r="O9">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="P9">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="Q9">
-        <v>214.144248301304</v>
+        <v>177.235769707638</v>
       </c>
       <c r="R9">
-        <v>1927.298234711736</v>
+        <v>1595.121927368742</v>
       </c>
       <c r="S9">
-        <v>0.2022956084991289</v>
+        <v>0.2128273696127187</v>
       </c>
       <c r="T9">
-        <v>0.2022956084991289</v>
+        <v>0.2128273696127187</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.03039733333333</v>
+        <v>12.439858</v>
       </c>
       <c r="H10">
-        <v>45.091192</v>
+        <v>37.319574</v>
       </c>
       <c r="I10">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223998</v>
       </c>
       <c r="J10">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223997</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.866548666666667</v>
+        <v>7.071161666666666</v>
       </c>
       <c r="N10">
-        <v>29.599646</v>
+        <v>21.213485</v>
       </c>
       <c r="O10">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="P10">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="Q10">
-        <v>148.2981467686702</v>
+        <v>87.96424702837665</v>
       </c>
       <c r="R10">
-        <v>1334.683320918032</v>
+        <v>791.6782232553899</v>
       </c>
       <c r="S10">
-        <v>0.1400927836158866</v>
+        <v>0.1056287867053849</v>
       </c>
       <c r="T10">
-        <v>0.1400927836158866</v>
+        <v>0.1056287867053849</v>
       </c>
     </row>
   </sheetData>
